--- a/data/ki/original_data/ki_2021_q3.xlsx
+++ b/data/ki/original_data/ki_2021_q3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilla/Documents/repos/openapc-se/data/ki/original_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0391AB-886B-0044-91EA-180F1CFC2F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E197F9-8AD2-BE47-ACB0-FCB53EA8340A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="500" windowWidth="38640" windowHeight="16140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
